--- a/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1254,7 +1254,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.09400921640265893</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1372339309433073</v>
+        <v>0.1372339309433074</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03490142879204405</v>
+        <v>0.03370883283188742</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03918091630598913</v>
+        <v>0.03781488860468991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03537500386267419</v>
+        <v>0.03623753514152308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06303918019709819</v>
+        <v>0.06296522961686207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06646262502783658</v>
+        <v>0.06873091871932739</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09329657580953292</v>
+        <v>0.09386264907655202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.105533019838458</v>
+        <v>0.105469493557552</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1566180943698349</v>
+        <v>0.1550574098604673</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05666640956164412</v>
+        <v>0.05549702140243742</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07311525448810674</v>
+        <v>0.07384236697746828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08079292331336836</v>
+        <v>0.07987500986115441</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1221504605903961</v>
+        <v>0.1236605741506598</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05998425600166478</v>
+        <v>0.0602700231128053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07268406835770386</v>
+        <v>0.06805764368797916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06542591586877854</v>
+        <v>0.06950685143957494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1071134703736496</v>
+        <v>0.1047633966548187</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09618304766786502</v>
+        <v>0.09634252370340876</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.128369525569094</v>
+        <v>0.1267047099226652</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1525388363341437</v>
+        <v>0.1490037516568813</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1972100569025483</v>
+        <v>0.1951682534711785</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07604530966031706</v>
+        <v>0.07664106307977445</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0981235703259315</v>
+        <v>0.0974837028724615</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1100162786612353</v>
+        <v>0.1097014947702126</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1530134092984698</v>
+        <v>0.1532958807778954</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06535582362454714</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0670498182209487</v>
+        <v>0.06704981822094869</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02550559680056021</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009348424836740265</v>
+        <v>0.009098791828556553</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01809255058308019</v>
+        <v>0.01843033534837545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02445280911559524</v>
+        <v>0.02388215194211759</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03193759258856945</v>
+        <v>0.03088465246580125</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02799725462247038</v>
+        <v>0.02810442305915964</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04180110698804766</v>
+        <v>0.04111127913877258</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0554418085409127</v>
+        <v>0.05469204225617247</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05842052110011445</v>
+        <v>0.05904234356248769</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02042384097487912</v>
+        <v>0.02031848893334296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03081091658399147</v>
+        <v>0.03151394381825894</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04177700196590518</v>
+        <v>0.04127168639859968</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04664997395821944</v>
+        <v>0.04697508977650206</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02133250635571958</v>
+        <v>0.02107382866683704</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0338055169947109</v>
+        <v>0.03389842469685721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03987397785874249</v>
+        <v>0.03928375791773444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04844752922151725</v>
+        <v>0.04774386943896925</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04770213162011686</v>
+        <v>0.04715832716720048</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06478049787370634</v>
+        <v>0.06273947224568539</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07870313530113715</v>
+        <v>0.07690669958165694</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07749463019963887</v>
+        <v>0.07610053318757948</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03146532560427153</v>
+        <v>0.0315358948552777</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04470004963929122</v>
+        <v>0.04502249825489576</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05528709388863016</v>
+        <v>0.05563605269833074</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05928283915018421</v>
+        <v>0.05906883757349352</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02588192094186001</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02770870592363174</v>
+        <v>0.02770870592363173</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01346636769256018</v>
+        <v>0.01284048547742715</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01544922284177208</v>
+        <v>0.01639138781662602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01578497886699728</v>
+        <v>0.01580669444641198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01330941369961171</v>
+        <v>0.01383045208750468</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01576493933872349</v>
+        <v>0.01601009413415066</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02110291081337848</v>
+        <v>0.02194642207243841</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.012623064228093</v>
+        <v>0.01243698170060748</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02335576392244447</v>
+        <v>0.02246735168564993</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01782523520771893</v>
+        <v>0.01728517528343353</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02240121793670127</v>
+        <v>0.02300062962992522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01673680211203163</v>
+        <v>0.0177022185276165</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0206307654965575</v>
+        <v>0.02067767424397243</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04095915744603497</v>
+        <v>0.04233121925735294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05692334001877315</v>
+        <v>0.06000043265898355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04425786248329642</v>
+        <v>0.04608111696298158</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0345267363464702</v>
+        <v>0.03541191303124603</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04773977460924533</v>
+        <v>0.04650004664102306</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05722155011451454</v>
+        <v>0.05660363572344243</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04122475755664972</v>
+        <v>0.04187864543091608</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04476622935018902</v>
+        <v>0.04515584473063369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03831905536146631</v>
+        <v>0.03704704082386869</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04852391466847421</v>
+        <v>0.05089201759437881</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03844910323646132</v>
+        <v>0.03790136332139368</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03603783782837639</v>
+        <v>0.03597720716208157</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03498467490223157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04274842776174935</v>
+        <v>0.04274842776174934</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05330795268054919</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02748968110932316</v>
+        <v>0.027247680285275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02964556586239653</v>
+        <v>0.02903120186222825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03650480568153981</v>
+        <v>0.03603043551699395</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06295748081850694</v>
+        <v>0.06326131600779941</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06703442858193974</v>
+        <v>0.06731652399953501</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07720393330232249</v>
+        <v>0.07742109930158708</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04782823263215336</v>
+        <v>0.04748398240929118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05062801445646145</v>
+        <v>0.05075231504920749</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05944899800573186</v>
+        <v>0.05885586674606282</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04114918013859806</v>
+        <v>0.04141681700152609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04247682810810962</v>
+        <v>0.04161987304265875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05019868290812222</v>
+        <v>0.05031703763468564</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08046787278910525</v>
+        <v>0.08027278970579246</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08571162072456977</v>
+        <v>0.08779895718108742</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09171322874929144</v>
+        <v>0.09138637778526465</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05898874241637599</v>
+        <v>0.05842784947706169</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06233947469941539</v>
+        <v>0.06199300067458691</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0697865636415293</v>
+        <v>0.06897189110017733</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36009</v>
+        <v>34778</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>38155</v>
+        <v>36825</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26685</v>
+        <v>27336</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36377</v>
+        <v>36334</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>87406</v>
+        <v>90389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>124433</v>
+        <v>125188</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>104969</v>
+        <v>104906</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>128287</v>
+        <v>127009</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>132987</v>
+        <v>130242</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>168718</v>
+        <v>170396</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>141307</v>
+        <v>139702</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>170541</v>
+        <v>172649</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61887</v>
+        <v>62182</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70782</v>
+        <v>66276</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49354</v>
+        <v>52432</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>61810</v>
+        <v>60453</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>126492</v>
+        <v>126701</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>171212</v>
+        <v>168991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>151724</v>
+        <v>148208</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>161536</v>
+        <v>159864</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>178466</v>
+        <v>179864</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>226427</v>
+        <v>224950</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>192419</v>
+        <v>191869</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>213630</v>
+        <v>214025</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15821</v>
+        <v>15399</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35462</v>
+        <v>36124</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50773</v>
+        <v>49589</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>71239</v>
+        <v>68890</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>44450</v>
+        <v>44621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>73228</v>
+        <v>72019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>110235</v>
+        <v>108744</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>126814</v>
+        <v>128164</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>66992</v>
+        <v>66646</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>114365</v>
+        <v>116975</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>169810</v>
+        <v>167756</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>205319</v>
+        <v>206750</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36103</v>
+        <v>35665</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>66260</v>
+        <v>66442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82794</v>
+        <v>81568</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>108065</v>
+        <v>106496</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>75735</v>
+        <v>74872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>113484</v>
+        <v>109908</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>156485</v>
+        <v>152914</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>168218</v>
+        <v>165192</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>103208</v>
+        <v>103440</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>165919</v>
+        <v>167116</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>224725</v>
+        <v>226143</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>260920</v>
+        <v>259978</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7425</v>
+        <v>7080</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7421</v>
+        <v>7873</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8633</v>
+        <v>8644</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9471</v>
+        <v>9842</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7511</v>
+        <v>7627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9658</v>
+        <v>10044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6932</v>
+        <v>6830</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17164</v>
+        <v>16511</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18321</v>
+        <v>17766</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21012</v>
+        <v>21574</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18344</v>
+        <v>19402</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>29842</v>
+        <v>29910</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22585</v>
+        <v>23342</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27342</v>
+        <v>28820</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24204</v>
+        <v>25201</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24569</v>
+        <v>25199</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22744</v>
+        <v>22153</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26188</v>
+        <v>25905</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22638</v>
+        <v>22997</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32898</v>
+        <v>33184</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39385</v>
+        <v>38078</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>45515</v>
+        <v>47736</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42141</v>
+        <v>41541</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52127</v>
+        <v>52040</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>93855</v>
+        <v>93029</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>100131</v>
+        <v>98056</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>128468</v>
+        <v>126798</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>223072</v>
+        <v>224148</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>236772</v>
+        <v>237769</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>287561</v>
+        <v>288370</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>332760</v>
+        <v>330365</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>349825</v>
+        <v>350684</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>430642</v>
+        <v>426346</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>140491</v>
+        <v>141405</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>143470</v>
+        <v>140576</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>176659</v>
+        <v>177076</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>285115</v>
+        <v>284424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>302742</v>
+        <v>310115</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>341603</v>
+        <v>340386</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>410408</v>
+        <v>406506</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>430748</v>
+        <v>428354</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>505526</v>
+        <v>499625</v>
       </c>
     </row>
     <row r="20">
